--- a/Texto-main/Texto_Login/public/sampledata.xlsx
+++ b/Texto-main/Texto_Login/public/sampledata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\texto-main\Texto-main\Texto_Login\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E108C732-50FD-475B-8277-F9BD0238CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605FE4C5-7C29-4A9C-A178-82B29B8E1F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" xr2:uid="{74CCEA3C-C8B1-449E-AAD8-D4CCDA92CE87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74CCEA3C-C8B1-449E-AAD8-D4CCDA92CE87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,38 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>rahul@gmail.com</t>
-  </si>
-  <si>
-    <t>vadala</t>
-  </si>
-  <si>
-    <t>sakshi</t>
-  </si>
-  <si>
-    <t>sakshi@gmail.com</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>pranit</t>
-  </si>
-  <si>
-    <t>pranit@gmail.com</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -84,15 +57,6 @@
   </si>
   <si>
     <t>country</t>
-  </si>
-  <si>
-    <t>navi mumbai</t>
-  </si>
-  <si>
-    <t>maharashtra</t>
-  </si>
-  <si>
-    <t>india</t>
   </si>
 </sst>
 </file>
@@ -480,115 +444,56 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>888928843</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>178388339</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>183883838</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5507AE55-5EDF-4317-AE28-926C1E62CCAB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{85A1C994-933E-4B17-80BE-A6206CBB8841}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{EF43658C-1EC3-4C83-A5B2-FD5630A6DE01}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>